--- a/app/config/tables/CRIANCA_FAL/forms/CRIANCA_FAL/CRIANCA_FAL.xlsx
+++ b/app/config/tables/CRIANCA_FAL/forms/CRIANCA_FAL/CRIANCA_FAL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7281F7F-2F11-4CAF-A23A-244893501855}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC3C9D7-7EBF-4097-ACCE-0EEB3316FA84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="224">
   <si>
     <t>setting_name</t>
   </si>
@@ -678,29 +678,6 @@
     <t>data('DIAGNQUEM') =='5'</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Onde</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> faleceu?</t>
-    </r>
-  </si>
-  <si>
     <t>Febre?</t>
   </si>
   <si>
@@ -714,6 +691,18 @@
   </si>
   <si>
     <t xml:space="preserve">Quem </t>
+  </si>
+  <si>
+    <t>REGIDC</t>
+  </si>
+  <si>
+    <t>VISITDATE</t>
+  </si>
+  <si>
+    <t>VISITIDC</t>
+  </si>
+  <si>
+    <t>Onde faleceu?</t>
   </si>
 </sst>
 </file>
@@ -1309,11 +1298,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129:B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1321,7 @@
     <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
@@ -1402,7 +1391,7 @@
         <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2192,7 +2181,7 @@
         <v>129</v>
       </c>
       <c r="H57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2235,32 +2224,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
-      <c r="B61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s">
-        <v>131</v>
-      </c>
-      <c r="H61" t="s">
-        <v>217</v>
-      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>153</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
     </row>
@@ -2268,100 +2244,91 @@
       <c r="A63" s="16"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
-      <c r="D63" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F63" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H63" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="B64" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="13"/>
       <c r="E64" s="13"/>
-      <c r="F64" t="s">
-        <v>143</v>
-      </c>
-      <c r="G64" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
-      <c r="B65" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="B65" s="13"/>
       <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E65" s="13"/>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
-      <c r="D66" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="D66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="13"/>
       <c r="F66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>154</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
-      <c r="B68" s="13"/>
+      <c r="B68" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="D68" s="13"/>
       <c r="E68" s="13"/>
-      <c r="F68" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" t="s">
-        <v>135</v>
-      </c>
-      <c r="H68" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -2378,13 +2345,13 @@
         <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="H70" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2393,7 +2360,7 @@
         <v>62</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
@@ -2407,13 +2374,13 @@
       </c>
       <c r="E72" s="13"/>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,32 +2394,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
-      <c r="B74" s="13"/>
+      <c r="B74" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
-      </c>
-      <c r="G74" t="s">
-        <v>137</v>
-      </c>
-      <c r="H74" t="s">
-        <v>137</v>
-      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>156</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
     </row>
@@ -2460,26 +2414,30 @@
       <c r="A76" s="16"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" s="13"/>
+      <c r="D76" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G76" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="H76" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
     </row>
@@ -2487,557 +2445,788 @@
       <c r="A78" s="16"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
-      <c r="D78" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="D78" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="13"/>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>157</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
-      <c r="B80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="D80" s="13"/>
       <c r="E80" s="13"/>
-      <c r="F80" t="s">
-        <v>151</v>
-      </c>
-      <c r="G80" t="s">
-        <v>140</v>
-      </c>
-      <c r="H80" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
-      <c r="B82" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="B82" s="13"/>
       <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
+      <c r="D82" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" t="s">
+        <v>148</v>
+      </c>
+      <c r="G82" t="s">
+        <v>137</v>
+      </c>
+      <c r="H82" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
-      <c r="D84" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="D84" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="13"/>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G84" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="H84" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>165</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="13"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" t="s">
+        <v>150</v>
+      </c>
+      <c r="G88" t="s">
+        <v>139</v>
+      </c>
+      <c r="H88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+      <c r="B89" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="13"/>
-      <c r="F86" t="s">
+      <c r="E90" s="13"/>
+      <c r="F90" t="s">
+        <v>151</v>
+      </c>
+      <c r="G90" t="s">
+        <v>140</v>
+      </c>
+      <c r="H90" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" t="s">
+        <v>161</v>
+      </c>
+      <c r="G94" t="s">
+        <v>202</v>
+      </c>
+      <c r="H94" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="13"/>
+      <c r="F96" t="s">
         <v>162</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G96" t="s">
         <v>158</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" t="s">
+        <v>163</v>
+      </c>
+      <c r="G101" t="s">
+        <v>159</v>
+      </c>
+      <c r="H101" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" t="s">
-        <v>67</v>
-      </c>
-      <c r="F87" t="s">
-        <v>163</v>
-      </c>
-      <c r="G87" t="s">
-        <v>159</v>
-      </c>
-      <c r="H87" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
-      <c r="D89" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F89" t="s">
-        <v>164</v>
-      </c>
-      <c r="G89" t="s">
-        <v>160</v>
-      </c>
-      <c r="H89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="D94" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F94" t="s">
-        <v>167</v>
-      </c>
-      <c r="G94" t="s">
-        <v>166</v>
-      </c>
-      <c r="H94" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="D95" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F95" t="s">
-        <v>168</v>
-      </c>
-      <c r="G95" t="s">
-        <v>166</v>
-      </c>
-      <c r="H95" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="D98" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F98" t="s">
-        <v>175</v>
-      </c>
-      <c r="G98" t="s">
-        <v>169</v>
-      </c>
-      <c r="H98" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
+      <c r="A102" s="25"/>
       <c r="B102" t="s">
         <v>62</v>
       </c>
       <c r="C102" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="D103" t="s">
-        <v>65</v>
+      <c r="A103" s="25"/>
+      <c r="D103" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G103" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H103" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
+      <c r="A104" s="25"/>
       <c r="B104" t="s">
-        <v>62</v>
-      </c>
-      <c r="C104" t="s">
-        <v>199</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="D105" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" t="s">
-        <v>178</v>
-      </c>
-      <c r="G105" t="s">
-        <v>172</v>
-      </c>
-      <c r="H105" t="s">
-        <v>172</v>
+      <c r="A105" s="25"/>
+      <c r="B105" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="18"/>
+      <c r="A106" s="25"/>
       <c r="B106" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="D107" s="6" t="s">
+      <c r="A107" s="27"/>
+      <c r="B107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="27"/>
+      <c r="D108" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F107" t="s">
-        <v>179</v>
-      </c>
-      <c r="G107" t="s">
-        <v>173</v>
-      </c>
-      <c r="H107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
-      <c r="D108" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="F108" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="G108" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H108" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
-      <c r="D109" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>54</v>
+      <c r="A109" s="27"/>
+      <c r="D109" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G109" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H109" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="18"/>
-      <c r="D110" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F110" t="s">
-        <v>184</v>
-      </c>
-      <c r="G110" t="s">
-        <v>182</v>
-      </c>
-      <c r="H110" t="s">
-        <v>182</v>
+      <c r="A110" s="27"/>
+      <c r="B110" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
-      <c r="B112" t="s">
+      <c r="D112" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F112" t="s">
+        <v>175</v>
+      </c>
+      <c r="G112" t="s">
+        <v>169</v>
+      </c>
+      <c r="H112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="18"/>
+      <c r="B113" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" t="s">
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="18"/>
+      <c r="B114" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="B115" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="D114" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="13" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="18"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G114" t="s">
-        <v>186</v>
-      </c>
-      <c r="H114" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
-      <c r="D116" t="s">
-        <v>49</v>
-      </c>
-      <c r="F116" t="s">
-        <v>189</v>
-      </c>
-      <c r="G116" t="s">
-        <v>187</v>
-      </c>
-      <c r="H116" t="s">
-        <v>187</v>
+      <c r="F116" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
-      <c r="B117" t="s">
+      <c r="A117" s="18"/>
+      <c r="B117" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="18"/>
+      <c r="B118" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
-      <c r="D118" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F118" t="s">
-        <v>193</v>
-      </c>
-      <c r="G118" t="s">
-        <v>190</v>
-      </c>
-      <c r="H118" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
+      <c r="A119" s="18"/>
       <c r="B119" t="s">
         <v>62</v>
       </c>
       <c r="C119" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="D120" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F120" t="s">
-        <v>194</v>
-      </c>
-      <c r="G120" t="s">
-        <v>191</v>
-      </c>
-      <c r="H120" t="s">
-        <v>191</v>
+      <c r="A120" s="18"/>
+      <c r="B120" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
+      <c r="A121" s="18"/>
       <c r="D121" t="s">
         <v>65</v>
       </c>
       <c r="F121" t="s">
+        <v>177</v>
+      </c>
+      <c r="G121" t="s">
+        <v>171</v>
+      </c>
+      <c r="H121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="B122" t="s">
+        <v>62</v>
+      </c>
+      <c r="C122" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="18"/>
+      <c r="D123" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F123" t="s">
+        <v>178</v>
+      </c>
+      <c r="G123" t="s">
+        <v>172</v>
+      </c>
+      <c r="H123" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="18"/>
+      <c r="B124" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="18"/>
+      <c r="B125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="18"/>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="18"/>
+      <c r="D127" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F127" t="s">
+        <v>179</v>
+      </c>
+      <c r="G127" t="s">
+        <v>173</v>
+      </c>
+      <c r="H127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="18"/>
+      <c r="D128" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F128" t="s">
+        <v>180</v>
+      </c>
+      <c r="G128" t="s">
+        <v>174</v>
+      </c>
+      <c r="H128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="18"/>
+      <c r="B129" t="s">
+        <v>64</v>
+      </c>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="18"/>
+      <c r="B130" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="18"/>
+      <c r="D131" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F131" t="s">
+        <v>183</v>
+      </c>
+      <c r="G131" t="s">
+        <v>181</v>
+      </c>
+      <c r="H131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="18"/>
+      <c r="D132" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F132" t="s">
+        <v>184</v>
+      </c>
+      <c r="G132" t="s">
+        <v>182</v>
+      </c>
+      <c r="H132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="18"/>
+      <c r="B133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="18"/>
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="19"/>
+      <c r="B135" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="19"/>
+      <c r="D136" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F136" t="s">
+        <v>188</v>
+      </c>
+      <c r="G136" t="s">
+        <v>186</v>
+      </c>
+      <c r="H136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="19"/>
+      <c r="B137" t="s">
+        <v>62</v>
+      </c>
+      <c r="C137" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="19"/>
+      <c r="D138" t="s">
+        <v>49</v>
+      </c>
+      <c r="F138" t="s">
+        <v>189</v>
+      </c>
+      <c r="G138" t="s">
+        <v>187</v>
+      </c>
+      <c r="H138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="19"/>
+      <c r="B139" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="19"/>
+      <c r="B140" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="19"/>
+      <c r="B141" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="19"/>
+      <c r="D142" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F142" t="s">
+        <v>193</v>
+      </c>
+      <c r="G142" t="s">
+        <v>190</v>
+      </c>
+      <c r="H142" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="19"/>
+      <c r="B143" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="19"/>
+      <c r="D144" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F144" t="s">
+        <v>194</v>
+      </c>
+      <c r="G144" t="s">
+        <v>191</v>
+      </c>
+      <c r="H144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="19"/>
+      <c r="D145" t="s">
+        <v>65</v>
+      </c>
+      <c r="F145" t="s">
         <v>195</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G145" t="s">
         <v>192</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H145" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="B122" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="19"/>
+      <c r="B146" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
-      <c r="B123" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="19"/>
+      <c r="B147" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3477,11 +3666,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,9 +3693,9 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="b">
@@ -3515,9 +3704,9 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="b">
@@ -3525,8 +3714,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>82</v>
+      <c r="A4" t="s">
+        <v>193</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>22</v>
@@ -3537,21 +3726,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>22</v>
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3559,10 +3748,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3570,7 +3759,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>22</v>
@@ -3581,10 +3770,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>65</v>
+        <v>179</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3592,7 +3781,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>22</v>
@@ -3602,8 +3791,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>96</v>
+      <c r="A11" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>22</v>
@@ -3614,10 +3803,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -3625,10 +3814,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>148</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3636,10 +3825,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>60</v>
+        <v>149</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3647,10 +3836,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>184</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3658,10 +3847,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3669,10 +3858,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>22</v>
+        <v>127</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3680,7 +3869,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>22</v>
@@ -3691,18 +3880,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>22</v>
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>117</v>
+      <c r="A20" t="s">
+        <v>161</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>22</v>
@@ -3713,10 +3902,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>22</v>
+        <v>164</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3724,10 +3913,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>49</v>
+        <v>163</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3735,7 +3924,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>22</v>
@@ -3746,7 +3935,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>49</v>
@@ -3757,10 +3946,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3768,10 +3957,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>49</v>
+        <v>177</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3779,7 +3968,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>22</v>
@@ -3790,10 +3979,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>116</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3801,10 +3990,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>95</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3812,7 +4001,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>22</v>
@@ -3823,7 +4012,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>49</v>
@@ -3834,10 +4023,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>22</v>
+        <v>167</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3845,7 +4034,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>49</v>
@@ -3855,8 +4044,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>148</v>
+      <c r="A34" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>22</v>
@@ -3867,10 +4056,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>49</v>
+        <v>176</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -3878,7 +4067,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>22</v>
@@ -3889,10 +4078,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -3900,10 +4089,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>22</v>
+        <v>212</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -3911,10 +4100,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>49</v>
+        <v>100</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -3922,10 +4111,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>22</v>
+        <v>99</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -3933,10 +4122,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>49</v>
+        <v>104</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -3944,7 +4133,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>49</v>
@@ -3955,10 +4144,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>49</v>
+        <v>144</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -3966,10 +4155,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>22</v>
+        <v>145</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -3977,10 +4166,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -3988,18 +4177,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>178</v>
+      <c r="A47" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>22</v>
@@ -4010,10 +4199,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>49</v>
+        <v>86</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -4021,10 +4210,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -4032,10 +4221,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>183</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>22</v>
+        <v>162</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -4043,7 +4232,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>22</v>
@@ -4054,10 +4243,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>22</v>
+        <v>147</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -4065,10 +4254,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>189</v>
-      </c>
-      <c r="B53" t="s">
-        <v>49</v>
+        <v>96</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -4076,10 +4265,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -4087,10 +4276,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>194</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>49</v>
+        <v>150</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -4098,18 +4287,51 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" t="s">
-        <v>65</v>
+        <v>151</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C60">
+    <sortCondition ref="A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
